--- a/data/Crypto Giardia 2009-2019.xlsx
+++ b/data/Crypto Giardia 2009-2019.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hazenandsawyer-my.sharepoint.com/personal/bstanford_hazenandsawyer_com/Documents/00 Projects/Loxahatchee DBF Evaluation/Data Analysis - Billy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B437D917-9ED5-453D-9779-6C476E629082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{B437D917-9ED5-453D-9779-6C476E629082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D50FBFF-2AC0-4374-BCCD-B4FB3B32A138}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.00"/>
   </numFmts>
@@ -592,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
